--- a/xlsx/latsenrom_moto_terms_relative_counts.xlsx
+++ b/xlsx/latsenrom_moto_terms_relative_counts.xlsx
@@ -927,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.8736</v>
+        <v>2.2989</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.1494</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3.4483</v>
+        <v>1.1494</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.4483</v>
+        <v>2.2989</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3103,13 +3103,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.7471</v>
+        <v>4.5977</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3647,13 +3647,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.7241</v>
+        <v>1.1494</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>5.1724</v>
+        <v>3.4483</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AV14">
         <v>0</v>
@@ -4735,13 +4735,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2.682</v>
+        <v>1.5326</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5007,13 +5007,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1.7241</v>
+        <v>0.8621</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AV17">
         <v>0</v>
@@ -5551,13 +5551,13 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>3.4483</v>
+        <v>3.0651</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>33.3333</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -5823,13 +5823,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>5.9387</v>
+        <v>4.5977</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>83.33329999999999</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>16.6667</v>
+        <v>0</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>16.6667</v>
+        <v>0</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -6095,13 +6095,13 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>8.045999999999999</v>
+        <v>6.8966</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.1494</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -6911,13 +6911,13 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>5.7471</v>
+        <v>4.5977</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>6.6092</v>
+        <v>4.8851</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>25</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -7455,13 +7455,13 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>3.4483</v>
+        <v>2.682</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>13.3333</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>6.6667</v>
+        <v>0</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="CD26">
-        <v>13.3333</v>
+        <v>0</v>
       </c>
       <c r="CE26">
         <v>26.6667</v>
@@ -7727,13 +7727,13 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>7.0243</v>
+        <v>5.364</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>22.2222</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>11.1111</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>11.1111</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>33.3333</v>
+        <v>0</v>
       </c>
       <c r="AV27">
         <v>0</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>22.2222</v>
+        <v>0</v>
       </c>
       <c r="BC27">
         <v>11.1111</v>
@@ -7999,13 +7999,13 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>4.1051</v>
+        <v>3.2841</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>85.71429999999999</v>
+        <v>14.2857</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -8271,13 +8271,13 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>5.2874</v>
+        <v>4.2912</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>13.3333</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>6.6667</v>
+        <v>0</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>20</v>
+        <v>6.6667</v>
       </c>
       <c r="BC29">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>4.7619</v>
+        <v>3.7767</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>71.4286</v>
+        <v>14.2857</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>14.2857</v>
+        <v>0</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="BI30">
-        <v>14.2857</v>
+        <v>0</v>
       </c>
       <c r="BJ30">
         <v>0</v>
@@ -8815,13 +8815,13 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>5.0034</v>
+        <v>3.854</v>
       </c>
       <c r="D31">
         <v>5.8824</v>
       </c>
       <c r="E31">
-        <v>88.2353</v>
+        <v>47.0588</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>35.2941</v>
+        <v>29.4118</v>
       </c>
       <c r="M31">
         <v>11.7647</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>17.6471</v>
+        <v>0</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>35.2941</v>
+        <v>5.8824</v>
       </c>
       <c r="BC31">
         <v>5.8824</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="CD31">
-        <v>17.6471</v>
+        <v>11.7647</v>
       </c>
       <c r="CE31">
         <v>35.2941</v>
@@ -9087,13 +9087,13 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>5.9626</v>
+        <v>5.3879</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>87.5</v>
+        <v>56.25</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>12.5</v>
       </c>
       <c r="AU32">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BC32">
         <v>6.25</v>
@@ -9359,13 +9359,13 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>6.2204</v>
+        <v>5.4091</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>82.35290000000001</v>
+        <v>52.9412</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>11.7647</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>5.8824</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>17.6471</v>
@@ -9512,70 +9512,70 @@
         <v>0</v>
       </c>
       <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
         <v>17.6471</v>
-      </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BD33">
-        <v>0</v>
-      </c>
-      <c r="BE33">
-        <v>0</v>
-      </c>
-      <c r="BF33">
-        <v>0</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>0</v>
-      </c>
-      <c r="BI33">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>0</v>
-      </c>
-      <c r="BK33">
-        <v>0</v>
-      </c>
-      <c r="BL33">
-        <v>0</v>
-      </c>
-      <c r="BM33">
-        <v>0</v>
-      </c>
-      <c r="BN33">
-        <v>0</v>
-      </c>
-      <c r="BO33">
-        <v>0</v>
-      </c>
-      <c r="BP33">
-        <v>0</v>
-      </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
-      <c r="BR33">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>0</v>
-      </c>
-      <c r="BT33">
-        <v>0</v>
-      </c>
-      <c r="BU33">
-        <v>0</v>
-      </c>
-      <c r="BV33">
-        <v>0</v>
-      </c>
-      <c r="BW33">
-        <v>23.5294</v>
       </c>
       <c r="BX33">
         <v>5.8824</v>
@@ -9631,13 +9631,13 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>6.7613</v>
+        <v>5.8824</v>
       </c>
       <c r="D34">
         <v>5.8824</v>
       </c>
       <c r="E34">
-        <v>88.2353</v>
+        <v>47.0588</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>17.6471</v>
+        <v>11.7647</v>
       </c>
       <c r="Z34">
         <v>17.6471</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>11.7647</v>
+        <v>5.8824</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>17.6471</v>
+        <v>0</v>
       </c>
       <c r="BC34">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="BQ34">
-        <v>5.8824</v>
+        <v>0</v>
       </c>
       <c r="BR34">
         <v>5.8824</v>
@@ -9903,13 +9903,13 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>6.0755</v>
+        <v>5.364</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>90.47620000000001</v>
+        <v>66.66670000000001</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>4.7619</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>4.7619</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>9.5238</v>
+        <v>4.7619</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>19.0476</v>
+        <v>4.7619</v>
       </c>
       <c r="BC35">
         <v>4.7619</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="BI35">
-        <v>4.7619</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
         <v>0</v>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="BW35">
-        <v>14.2857</v>
+        <v>9.5238</v>
       </c>
       <c r="BX35">
         <v>4.7619</v>
@@ -10140,7 +10140,7 @@
         <v>9.5238</v>
       </c>
       <c r="CD35">
-        <v>9.5238</v>
+        <v>4.7619</v>
       </c>
       <c r="CE35">
         <v>28.5714</v>
@@ -10175,13 +10175,13 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>6.7466</v>
+        <v>6.1969</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>82.6087</v>
+        <v>52.1739</v>
       </c>
       <c r="F36">
         <v>4.3478</v>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>8.6957</v>
+        <v>4.3478</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -10328,7 +10328,7 @@
         <v>4.3478</v>
       </c>
       <c r="BB36">
-        <v>13.0435</v>
+        <v>0</v>
       </c>
       <c r="BC36">
         <v>8.6957</v>
@@ -10447,13 +10447,13 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <v>7.8927</v>
+        <v>7.2797</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>73.33329999999999</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC37">
         <v>6.6667</v>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="BI37">
-        <v>6.6667</v>
+        <v>0</v>
       </c>
       <c r="BJ37">
         <v>0</v>
@@ -10719,13 +10719,13 @@
         <v>24</v>
       </c>
       <c r="C38">
-        <v>7.7107</v>
+        <v>7.2797</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>83.33329999999999</v>
+        <v>54.1667</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>8.333299999999999</v>
+        <v>4.1667</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>8.333299999999999</v>
+        <v>4.1667</v>
       </c>
       <c r="BC38">
         <v>12.5</v>
@@ -10991,13 +10991,13 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>7.1385</v>
+        <v>6.2916</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>84.2105</v>
+        <v>52.6316</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>15.7895</v>
+        <v>10.5263</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>26.3158</v>
+        <v>0</v>
       </c>
       <c r="BC39">
         <v>15.7895</v>
@@ -11165,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="BI39">
-        <v>10.5263</v>
+        <v>5.2632</v>
       </c>
       <c r="BJ39">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>31.5789</v>
       </c>
       <c r="CC39">
-        <v>10.5263</v>
+        <v>5.2632</v>
       </c>
       <c r="CD39">
         <v>5.2632</v>
@@ -11263,13 +11263,13 @@
         <v>36</v>
       </c>
       <c r="C40">
-        <v>5.5875</v>
+        <v>5.1724</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>80.5556</v>
+        <v>61.1111</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -11329,7 +11329,7 @@
         <v>2.7778</v>
       </c>
       <c r="Y40">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>2.7778</v>
@@ -11395,7 +11395,7 @@
         <v>2.7778</v>
       </c>
       <c r="AU40">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="AV40">
         <v>8.333299999999999</v>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>13.8889</v>
+        <v>2.7778</v>
       </c>
       <c r="BC40">
         <v>8.333299999999999</v>
@@ -11535,13 +11535,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>6.7944</v>
+        <v>6.1814</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>93.33329999999999</v>
+        <v>62.2222</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>11.1111</v>
+        <v>8.8889</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>4.4444</v>
       </c>
       <c r="Y41">
-        <v>6.6667</v>
+        <v>4.4444</v>
       </c>
       <c r="Z41">
         <v>6.6667</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="BB41">
-        <v>8.8889</v>
+        <v>2.2222</v>
       </c>
       <c r="BC41">
         <v>4.4444</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="BI41">
-        <v>4.4444</v>
+        <v>2.2222</v>
       </c>
       <c r="BJ41">
         <v>0</v>
@@ -11733,10 +11733,10 @@
         <v>0</v>
       </c>
       <c r="BQ41">
-        <v>6.6667</v>
+        <v>4.4444</v>
       </c>
       <c r="BR41">
-        <v>4.4444</v>
+        <v>2.2222</v>
       </c>
       <c r="BS41">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="BW41">
-        <v>11.1111</v>
+        <v>8.8889</v>
       </c>
       <c r="BX41">
         <v>4.4444</v>
@@ -11760,7 +11760,7 @@
         <v>2.2222</v>
       </c>
       <c r="BZ41">
-        <v>15.5556</v>
+        <v>13.3333</v>
       </c>
       <c r="CA41">
         <v>0</v>
@@ -11807,13 +11807,13 @@
         <v>27</v>
       </c>
       <c r="C42">
-        <v>6.3431</v>
+        <v>5.5768</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>88.88890000000001</v>
+        <v>51.8519</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>11.1111</v>
+        <v>0</v>
       </c>
       <c r="BC42">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="BQ42">
-        <v>3.7037</v>
+        <v>0</v>
       </c>
       <c r="BR42">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>22.2222</v>
+        <v>18.5185</v>
       </c>
       <c r="CC42">
         <v>7.4074</v>
       </c>
       <c r="CD42">
-        <v>11.1111</v>
+        <v>3.7037</v>
       </c>
       <c r="CE42">
         <v>29.6296</v>
@@ -12065,7 +12065,7 @@
         <v>3.7037</v>
       </c>
       <c r="CK42">
-        <v>96.2963</v>
+        <v>92.5926</v>
       </c>
       <c r="CL42">
         <v>0</v>
@@ -12079,13 +12079,13 @@
         <v>36</v>
       </c>
       <c r="C43">
-        <v>5.8429</v>
+        <v>5.2682</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>83.33329999999999</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>8.333299999999999</v>
+        <v>5.5556</v>
       </c>
       <c r="AR43">
         <v>2.7778</v>
@@ -12211,7 +12211,7 @@
         <v>2.7778</v>
       </c>
       <c r="AU43">
-        <v>5.5556</v>
+        <v>2.7778</v>
       </c>
       <c r="AV43">
         <v>11.1111</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BM43">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="BN43">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="BQ43">
-        <v>8.333299999999999</v>
+        <v>0</v>
       </c>
       <c r="BR43">
         <v>2.7778</v>
@@ -12351,13 +12351,13 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>7.5777</v>
+        <v>7.152</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>88.88890000000001</v>
+        <v>70.3704</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>7.4074</v>
       </c>
       <c r="AU44">
-        <v>3.7037</v>
+        <v>0</v>
       </c>
       <c r="AV44">
         <v>14.8148</v>
@@ -12504,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>11.1111</v>
+        <v>7.4074</v>
       </c>
       <c r="BC44">
         <v>0</v>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="BQ44">
-        <v>14.8148</v>
+        <v>11.1111</v>
       </c>
       <c r="BR44">
         <v>0</v>
@@ -12585,10 +12585,10 @@
         <v>18.5185</v>
       </c>
       <c r="CC44">
-        <v>14.8148</v>
+        <v>11.1111</v>
       </c>
       <c r="CD44">
-        <v>14.8148</v>
+        <v>11.1111</v>
       </c>
       <c r="CE44">
         <v>44.4444</v>
@@ -12623,13 +12623,13 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>7.9023</v>
+        <v>7.3276</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="BC45">
         <v>6.25</v>
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="BI45">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="BJ45">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="BQ45">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="BR45">
         <v>0</v>

--- a/xlsx/latsenrom_moto_terms_relative_counts.xlsx
+++ b/xlsx/latsenrom_moto_terms_relative_counts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>total_documents</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>daimlers</t>
+  </si>
+  <si>
+    <t>divritenis</t>
   </si>
   <si>
     <t>drezīna</t>
@@ -272,6 +275,9 @@
   </si>
   <si>
     <t>velomotors</t>
+  </si>
+  <si>
+    <t>velosipeds</t>
   </si>
   <si>
     <t>velosipēds</t>
@@ -641,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL45"/>
+  <dimension ref="A1:CN45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:92">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -918,8 +924,14 @@
       <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:92">
       <c r="A2" s="1">
         <v>1879</v>
       </c>
@@ -927,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.2989</v>
+        <v>2.2472</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1014,11 +1026,11 @@
         <v>0</v>
       </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>50</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
       <c r="AH2">
         <v>0</v>
       </c>
@@ -1026,11 +1038,11 @@
         <v>0</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>50</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
       <c r="AL2">
         <v>0</v>
       </c>
@@ -1071,11 +1083,11 @@
         <v>0</v>
       </c>
       <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
         <v>50</v>
       </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
       <c r="BA2">
         <v>0</v>
       </c>
@@ -1185,13 +1197,19 @@
         <v>0</v>
       </c>
       <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
         <v>50</v>
       </c>
-      <c r="CL2">
+      <c r="CN2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:90">
+    <row r="3" spans="1:92">
       <c r="A3" s="1">
         <v>1890</v>
       </c>
@@ -1462,8 +1480,14 @@
       <c r="CL3">
         <v>0</v>
       </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:90">
+    <row r="4" spans="1:92">
       <c r="A4" s="1">
         <v>1891</v>
       </c>
@@ -1471,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.9157</v>
+        <v>1.8727</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1558,11 +1582,11 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>33.3333</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
       <c r="AH4">
         <v>0</v>
       </c>
@@ -1729,13 +1753,19 @@
         <v>0</v>
       </c>
       <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
         <v>100</v>
       </c>
-      <c r="CL4">
+      <c r="CN4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:90">
+    <row r="5" spans="1:92">
       <c r="A5" s="1">
         <v>1892</v>
       </c>
@@ -1743,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.1494</v>
+        <v>1.1236</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2001,13 +2031,19 @@
         <v>0</v>
       </c>
       <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
         <v>100</v>
       </c>
-      <c r="CL5">
+      <c r="CN5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:90">
+    <row r="6" spans="1:92">
       <c r="A6" s="1">
         <v>1893</v>
       </c>
@@ -2015,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.1494</v>
+        <v>1.1236</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2273,13 +2309,19 @@
         <v>0</v>
       </c>
       <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
         <v>100</v>
       </c>
-      <c r="CL6">
+      <c r="CN6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:90">
+    <row r="7" spans="1:92">
       <c r="A7" s="1">
         <v>1895</v>
       </c>
@@ -2287,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3.8314</v>
+        <v>3.7453</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2374,17 +2416,17 @@
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>100</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>33.3333</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
       <c r="AJ7">
         <v>0</v>
       </c>
@@ -2431,11 +2473,11 @@
         <v>0</v>
       </c>
       <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>33.3333</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
       <c r="BA7">
         <v>0</v>
       </c>
@@ -2503,11 +2545,11 @@
         <v>0</v>
       </c>
       <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
         <v>33.3333</v>
       </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
       <c r="BY7">
         <v>0</v>
       </c>
@@ -2527,11 +2569,11 @@
         <v>0</v>
       </c>
       <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
         <v>33.3333</v>
       </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
       <c r="CG7">
         <v>0</v>
       </c>
@@ -2545,13 +2587,19 @@
         <v>0</v>
       </c>
       <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
         <v>100</v>
       </c>
-      <c r="CL7">
+      <c r="CN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:90">
+    <row r="8" spans="1:92">
       <c r="A8" s="1">
         <v>1899</v>
       </c>
@@ -2559,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6.8966</v>
+        <v>6.7416</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2646,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>100</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -2775,11 +2823,11 @@
         <v>0</v>
       </c>
       <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
         <v>100</v>
       </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
       <c r="BY8">
         <v>0</v>
       </c>
@@ -2805,25 +2853,31 @@
         <v>0</v>
       </c>
       <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
         <v>100</v>
       </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
       <c r="CI8">
         <v>0</v>
       </c>
       <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
         <v>100</v>
       </c>
-      <c r="CK8">
+      <c r="CM8">
         <v>100</v>
       </c>
-      <c r="CL8">
+      <c r="CN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:90">
+    <row r="9" spans="1:92">
       <c r="A9" s="1">
         <v>1900</v>
       </c>
@@ -2831,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.2989</v>
+        <v>2.2472</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2918,11 +2972,11 @@
         <v>0</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>100</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
@@ -3089,13 +3143,19 @@
         <v>0</v>
       </c>
       <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
         <v>100</v>
       </c>
-      <c r="CL9">
+      <c r="CN9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:90">
+    <row r="10" spans="1:92">
       <c r="A10" s="1">
         <v>1901</v>
       </c>
@@ -3103,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>4.5977</v>
+        <v>4.4944</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3190,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>100</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -3319,11 +3379,11 @@
         <v>0</v>
       </c>
       <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
         <v>100</v>
       </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
       <c r="BY10">
         <v>0</v>
       </c>
@@ -3361,13 +3421,19 @@
         <v>0</v>
       </c>
       <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
         <v>100</v>
       </c>
-      <c r="CL10">
+      <c r="CN10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:90">
+    <row r="11" spans="1:92">
       <c r="A11" s="1">
         <v>1902</v>
       </c>
@@ -3375,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.1494</v>
+        <v>1.1236</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3633,13 +3699,19 @@
         <v>0</v>
       </c>
       <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
         <v>100</v>
       </c>
-      <c r="CL11">
+      <c r="CN11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:92">
       <c r="A12" s="1">
         <v>1903</v>
       </c>
@@ -3647,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.1494</v>
+        <v>1.1236</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3905,13 +3977,19 @@
         <v>0</v>
       </c>
       <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
         <v>100</v>
       </c>
-      <c r="CL12">
+      <c r="CN12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:90">
+    <row r="13" spans="1:92">
       <c r="A13" s="1">
         <v>1904</v>
       </c>
@@ -3919,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1.9157</v>
+        <v>2.2472</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4000,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>33.3333</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -4135,11 +4213,11 @@
         <v>0</v>
       </c>
       <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
         <v>33.3333</v>
       </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
       <c r="BY13">
         <v>0</v>
       </c>
@@ -4165,11 +4243,11 @@
         <v>0</v>
       </c>
       <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
         <v>33.3333</v>
       </c>
-      <c r="CH13">
-        <v>0</v>
-      </c>
       <c r="CI13">
         <v>0</v>
       </c>
@@ -4177,13 +4255,19 @@
         <v>0</v>
       </c>
       <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
         <v>100</v>
       </c>
-      <c r="CL13">
+      <c r="CN13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:90">
+    <row r="14" spans="1:92">
       <c r="A14" s="1">
         <v>1905</v>
       </c>
@@ -4191,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3.4483</v>
+        <v>3.3708</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4275,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>50</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -4335,11 +4419,11 @@
         <v>0</v>
       </c>
       <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
         <v>50</v>
       </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
       <c r="BA14">
         <v>0</v>
       </c>
@@ -4431,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
         <v>50</v>
       </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
       <c r="CG14">
         <v>0</v>
       </c>
@@ -4449,13 +4533,19 @@
         <v>0</v>
       </c>
       <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
         <v>100</v>
       </c>
-      <c r="CL14">
+      <c r="CN14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:90">
+    <row r="15" spans="1:92">
       <c r="A15" s="1">
         <v>1907</v>
       </c>
@@ -4463,7 +4553,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2.2989</v>
+        <v>2.2472</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4550,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>33.3333</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>33.3333</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>33.3333</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -4607,11 +4697,11 @@
         <v>0</v>
       </c>
       <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
         <v>33.3333</v>
       </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
       <c r="BA15">
         <v>0</v>
       </c>
@@ -4721,13 +4811,19 @@
         <v>0</v>
       </c>
       <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
         <v>100</v>
       </c>
-      <c r="CL15">
+      <c r="CN15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:90">
+    <row r="16" spans="1:92">
       <c r="A16" s="1">
         <v>1908</v>
       </c>
@@ -4735,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1.5326</v>
+        <v>1.4981</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4819,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>33.3333</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
         <v>0</v>
       </c>
@@ -4951,11 +5047,11 @@
         <v>0</v>
       </c>
       <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
         <v>33.3333</v>
       </c>
-      <c r="BX16">
-        <v>0</v>
-      </c>
       <c r="BY16">
         <v>0</v>
       </c>
@@ -4990,16 +5086,22 @@
         <v>0</v>
       </c>
       <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
         <v>33.3333</v>
       </c>
-      <c r="CK16">
+      <c r="CM16">
         <v>33.3333</v>
       </c>
-      <c r="CL16">
+      <c r="CN16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:90">
+    <row r="17" spans="1:92">
       <c r="A17" s="1">
         <v>1909</v>
       </c>
@@ -5007,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.8621</v>
+        <v>0.8427</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5265,13 +5367,19 @@
         <v>0</v>
       </c>
       <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
         <v>75</v>
       </c>
-      <c r="CL17">
+      <c r="CN17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:90">
+    <row r="18" spans="1:92">
       <c r="A18" s="1">
         <v>1910</v>
       </c>
@@ -5279,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2.8736</v>
+        <v>2.809</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5366,13 +5474,13 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>50</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -5423,11 +5531,11 @@
         <v>0</v>
       </c>
       <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
         <v>50</v>
       </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
       <c r="BA18">
         <v>0</v>
       </c>
@@ -5519,11 +5627,11 @@
         <v>0</v>
       </c>
       <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
         <v>50</v>
       </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
       <c r="CG18">
         <v>0</v>
       </c>
@@ -5537,13 +5645,19 @@
         <v>0</v>
       </c>
       <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
         <v>50</v>
       </c>
-      <c r="CL18">
+      <c r="CN18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:90">
+    <row r="19" spans="1:92">
       <c r="A19" s="1">
         <v>1911</v>
       </c>
@@ -5551,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>3.0651</v>
+        <v>2.9963</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5638,11 +5752,11 @@
         <v>0</v>
       </c>
       <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>33.3333</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
       <c r="AH19">
         <v>0</v>
       </c>
@@ -5695,11 +5809,11 @@
         <v>0</v>
       </c>
       <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
         <v>33.3333</v>
       </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
       <c r="BA19">
         <v>0</v>
       </c>
@@ -5788,20 +5902,20 @@
         <v>0</v>
       </c>
       <c r="CD19">
-        <v>33.3333</v>
+        <v>0</v>
       </c>
       <c r="CE19">
         <v>33.3333</v>
       </c>
       <c r="CF19">
-        <v>0</v>
+        <v>33.3333</v>
       </c>
       <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
         <v>33.3333</v>
       </c>
-      <c r="CH19">
-        <v>0</v>
-      </c>
       <c r="CI19">
         <v>0</v>
       </c>
@@ -5809,13 +5923,19 @@
         <v>0</v>
       </c>
       <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
         <v>100</v>
       </c>
-      <c r="CL19">
+      <c r="CN19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:92">
       <c r="A20" s="1">
         <v>1912</v>
       </c>
@@ -5823,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>4.5977</v>
+        <v>4.6816</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5904,28 +6024,28 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>16.6667</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>66.66670000000001</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>50</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
       <c r="AI20">
-        <v>16.6667</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
         <v>16.6667</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>16.6667</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -5934,11 +6054,11 @@
         <v>0</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
         <v>16.6667</v>
       </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
       <c r="AP20">
         <v>0</v>
       </c>
@@ -5967,11 +6087,11 @@
         <v>0</v>
       </c>
       <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
         <v>16.6667</v>
       </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
       <c r="BA20">
         <v>0</v>
       </c>
@@ -6054,20 +6174,20 @@
         <v>0</v>
       </c>
       <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
         <v>16.6667</v>
       </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
       <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
         <v>16.6667</v>
       </c>
-      <c r="CE20">
+      <c r="CF20">
         <v>50</v>
       </c>
-      <c r="CF20">
-        <v>0</v>
-      </c>
       <c r="CG20">
         <v>0</v>
       </c>
@@ -6078,16 +6198,22 @@
         <v>0</v>
       </c>
       <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
         <v>16.6667</v>
       </c>
-      <c r="CK20">
+      <c r="CM20">
         <v>100</v>
       </c>
-      <c r="CL20">
+      <c r="CN20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:90">
+    <row r="21" spans="1:92">
       <c r="A21" s="1">
         <v>1913</v>
       </c>
@@ -6095,7 +6221,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>6.8966</v>
+        <v>6.7416</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6182,11 +6308,11 @@
         <v>0</v>
       </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>50</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
       <c r="AH21">
         <v>0</v>
       </c>
@@ -6206,11 +6332,11 @@
         <v>0</v>
       </c>
       <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>50</v>
       </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
       <c r="AP21">
         <v>0</v>
       </c>
@@ -6311,11 +6437,11 @@
         <v>0</v>
       </c>
       <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
         <v>50</v>
       </c>
-      <c r="BX21">
-        <v>0</v>
-      </c>
       <c r="BY21">
         <v>0</v>
       </c>
@@ -6326,20 +6452,20 @@
         <v>0</v>
       </c>
       <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
         <v>50</v>
       </c>
-      <c r="CC21">
-        <v>0</v>
-      </c>
       <c r="CD21">
         <v>0</v>
       </c>
       <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
         <v>100</v>
       </c>
-      <c r="CF21">
-        <v>0</v>
-      </c>
       <c r="CG21">
         <v>0</v>
       </c>
@@ -6353,13 +6479,19 @@
         <v>0</v>
       </c>
       <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
         <v>100</v>
       </c>
-      <c r="CL21">
+      <c r="CN21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:92">
       <c r="A22" s="1">
         <v>1914</v>
       </c>
@@ -6367,7 +6499,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>1.7241</v>
+        <v>1.6854</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6454,11 +6586,11 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>50</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
         <v>0</v>
       </c>
@@ -6607,11 +6739,11 @@
         <v>0</v>
       </c>
       <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
         <v>50</v>
       </c>
-      <c r="CF22">
-        <v>0</v>
-      </c>
       <c r="CG22">
         <v>0</v>
       </c>
@@ -6625,13 +6757,19 @@
         <v>0</v>
       </c>
       <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22">
+        <v>0</v>
+      </c>
+      <c r="CM22">
         <v>50</v>
       </c>
-      <c r="CL22">
+      <c r="CN22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:92">
       <c r="A23" s="1">
         <v>1915</v>
       </c>
@@ -6902,8 +7040,14 @@
       <c r="CL23">
         <v>0</v>
       </c>
+      <c r="CM23">
+        <v>0</v>
+      </c>
+      <c r="CN23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:92">
       <c r="A24" s="1">
         <v>1919</v>
       </c>
@@ -6911,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>4.5977</v>
+        <v>4.4944</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6998,11 +7142,11 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>100</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -7148,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="CD24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CE24">
         <v>100</v>
       </c>
       <c r="CF24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CG24">
         <v>0</v>
@@ -7169,13 +7313,19 @@
         <v>0</v>
       </c>
       <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24">
+        <v>0</v>
+      </c>
+      <c r="CM24">
         <v>100</v>
       </c>
-      <c r="CL24">
+      <c r="CN24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:92">
       <c r="A25" s="1">
         <v>1920</v>
       </c>
@@ -7183,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>4.8851</v>
+        <v>5.0562</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7270,11 +7420,11 @@
         <v>0</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>25</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
@@ -7312,11 +7462,11 @@
         <v>0</v>
       </c>
       <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
         <v>25</v>
       </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
       <c r="AV25">
         <v>0</v>
       </c>
@@ -7327,11 +7477,11 @@
         <v>0</v>
       </c>
       <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
         <v>25</v>
       </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
       <c r="BA25">
         <v>0</v>
       </c>
@@ -7423,17 +7573,17 @@
         <v>0</v>
       </c>
       <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
         <v>100</v>
       </c>
-      <c r="CF25">
-        <v>0</v>
-      </c>
       <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
         <v>25</v>
       </c>
-      <c r="CH25">
-        <v>0</v>
-      </c>
       <c r="CI25">
         <v>0</v>
       </c>
@@ -7441,13 +7591,19 @@
         <v>0</v>
       </c>
       <c r="CK25">
+        <v>25</v>
+      </c>
+      <c r="CL25">
+        <v>0</v>
+      </c>
+      <c r="CM25">
         <v>100</v>
       </c>
-      <c r="CL25">
+      <c r="CN25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:92">
       <c r="A26" s="1">
         <v>1921</v>
       </c>
@@ -7455,7 +7611,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>2.682</v>
+        <v>2.6966</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7539,14 +7695,14 @@
         <v>0</v>
       </c>
       <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>6.6667</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>13.3333</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
       <c r="AH26">
         <v>0</v>
       </c>
@@ -7599,11 +7755,11 @@
         <v>0</v>
       </c>
       <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
         <v>13.3333</v>
       </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
       <c r="BA26">
         <v>0</v>
       </c>
@@ -7671,11 +7827,11 @@
         <v>0</v>
       </c>
       <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
         <v>13.3333</v>
       </c>
-      <c r="BX26">
-        <v>0</v>
-      </c>
       <c r="BY26">
         <v>0</v>
       </c>
@@ -7695,31 +7851,37 @@
         <v>0</v>
       </c>
       <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
         <v>26.6667</v>
       </c>
-      <c r="CF26">
-        <v>0</v>
-      </c>
       <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
         <v>6.6667</v>
       </c>
-      <c r="CH26">
-        <v>0</v>
-      </c>
       <c r="CI26">
         <v>0</v>
       </c>
       <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
         <v>6.6667</v>
       </c>
-      <c r="CK26">
+      <c r="CL26">
+        <v>6.6667</v>
+      </c>
+      <c r="CM26">
         <v>86.66670000000001</v>
       </c>
-      <c r="CL26">
+      <c r="CN26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:92">
       <c r="A27" s="1">
         <v>1922</v>
       </c>
@@ -7727,7 +7889,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>5.364</v>
+        <v>5.4931</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7811,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>22.2222</v>
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>22.2222</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>22.2222</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -7871,11 +8033,11 @@
         <v>0</v>
       </c>
       <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
         <v>11.1111</v>
       </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
       <c r="BA27">
         <v>0</v>
       </c>
@@ -7883,13 +8045,13 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>11.1111</v>
+        <v>0</v>
       </c>
       <c r="BD27">
         <v>11.1111</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>11.1111</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -7943,11 +8105,11 @@
         <v>0</v>
       </c>
       <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
         <v>11.1111</v>
       </c>
-      <c r="BX27">
-        <v>0</v>
-      </c>
       <c r="BY27">
         <v>0</v>
       </c>
@@ -7958,26 +8120,26 @@
         <v>0</v>
       </c>
       <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
         <v>11.1111</v>
       </c>
-      <c r="CC27">
-        <v>0</v>
-      </c>
       <c r="CD27">
         <v>0</v>
       </c>
       <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
         <v>66.66670000000001</v>
       </c>
-      <c r="CF27">
-        <v>0</v>
-      </c>
       <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
         <v>33.3333</v>
       </c>
-      <c r="CH27">
-        <v>0</v>
-      </c>
       <c r="CI27">
         <v>0</v>
       </c>
@@ -7985,13 +8147,19 @@
         <v>0</v>
       </c>
       <c r="CK27">
+        <v>22.2222</v>
+      </c>
+      <c r="CL27">
+        <v>0</v>
+      </c>
+      <c r="CM27">
         <v>88.88890000000001</v>
       </c>
-      <c r="CL27">
+      <c r="CN27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:92">
       <c r="A28" s="1">
         <v>1923</v>
       </c>
@@ -7999,7 +8167,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>3.2841</v>
+        <v>3.3708</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -8080,16 +8248,16 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>14.2857</v>
       </c>
       <c r="AE28">
-        <v>14.2857</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>14.2857</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>14.2857</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -8110,11 +8278,11 @@
         <v>0</v>
       </c>
       <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>14.2857</v>
       </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
       <c r="AP28">
         <v>0</v>
       </c>
@@ -8143,11 +8311,11 @@
         <v>0</v>
       </c>
       <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
         <v>14.2857</v>
       </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
       <c r="BA28">
         <v>0</v>
       </c>
@@ -8233,23 +8401,23 @@
         <v>0</v>
       </c>
       <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28">
         <v>14.2857</v>
       </c>
-      <c r="CD28">
-        <v>0</v>
-      </c>
       <c r="CE28">
+        <v>0</v>
+      </c>
+      <c r="CF28">
         <v>42.8571</v>
       </c>
-      <c r="CF28">
-        <v>0</v>
-      </c>
       <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CH28">
         <v>14.2857</v>
       </c>
-      <c r="CH28">
-        <v>0</v>
-      </c>
       <c r="CI28">
         <v>0</v>
       </c>
@@ -8257,13 +8425,19 @@
         <v>0</v>
       </c>
       <c r="CK28">
+        <v>0</v>
+      </c>
+      <c r="CL28">
+        <v>0</v>
+      </c>
+      <c r="CM28">
         <v>100</v>
       </c>
-      <c r="CL28">
+      <c r="CN28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:92">
       <c r="A29" s="1">
         <v>1924</v>
       </c>
@@ -8271,7 +8445,7 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>4.2912</v>
+        <v>4.3446</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -8355,17 +8529,17 @@
         <v>0</v>
       </c>
       <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>13.3333</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>26.6667</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>6.6667</v>
       </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
       <c r="AI29">
         <v>0</v>
       </c>
@@ -8382,11 +8556,11 @@
         <v>0</v>
       </c>
       <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
         <v>13.3333</v>
       </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
       <c r="AP29">
         <v>0</v>
       </c>
@@ -8415,20 +8589,20 @@
         <v>0</v>
       </c>
       <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
         <v>6.6667</v>
       </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
       <c r="BA29">
         <v>0</v>
       </c>
       <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
         <v>6.6667</v>
       </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
       <c r="BD29">
         <v>0</v>
       </c>
@@ -8448,11 +8622,11 @@
         <v>0</v>
       </c>
       <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
         <v>6.6667</v>
       </c>
-      <c r="BK29">
-        <v>0</v>
-      </c>
       <c r="BL29">
         <v>0</v>
       </c>
@@ -8466,11 +8640,11 @@
         <v>0</v>
       </c>
       <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
         <v>6.6667</v>
       </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
       <c r="BR29">
         <v>0</v>
       </c>
@@ -8499,43 +8673,49 @@
         <v>0</v>
       </c>
       <c r="CA29">
+        <v>0</v>
+      </c>
+      <c r="CB29">
         <v>6.6667</v>
       </c>
-      <c r="CB29">
+      <c r="CC29">
         <v>20</v>
       </c>
-      <c r="CC29">
+      <c r="CD29">
         <v>6.6667</v>
       </c>
-      <c r="CD29">
-        <v>0</v>
-      </c>
       <c r="CE29">
+        <v>0</v>
+      </c>
+      <c r="CF29">
         <v>40</v>
       </c>
-      <c r="CF29">
-        <v>0</v>
-      </c>
       <c r="CG29">
+        <v>0</v>
+      </c>
+      <c r="CH29">
         <v>13.3333</v>
       </c>
-      <c r="CH29">
-        <v>0</v>
-      </c>
       <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
         <v>6.6667</v>
       </c>
-      <c r="CJ29">
-        <v>0</v>
-      </c>
       <c r="CK29">
+        <v>13.3333</v>
+      </c>
+      <c r="CL29">
+        <v>0</v>
+      </c>
+      <c r="CM29">
         <v>93.33329999999999</v>
       </c>
-      <c r="CL29">
+      <c r="CN29">
         <v>6.6667</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:92">
       <c r="A30" s="1">
         <v>1925</v>
       </c>
@@ -8543,7 +8723,7 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>3.7767</v>
+        <v>3.6918</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8630,14 +8810,14 @@
         <v>0</v>
       </c>
       <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <v>28.5714</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>14.2857</v>
       </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
       <c r="AI30">
         <v>0</v>
       </c>
@@ -8735,11 +8915,11 @@
         <v>0</v>
       </c>
       <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
         <v>14.2857</v>
       </c>
-      <c r="BP30">
-        <v>0</v>
-      </c>
       <c r="BQ30">
         <v>0</v>
       </c>
@@ -8768,32 +8948,32 @@
         <v>0</v>
       </c>
       <c r="BZ30">
-        <v>14.2857</v>
+        <v>0</v>
       </c>
       <c r="CA30">
         <v>14.2857</v>
       </c>
       <c r="CB30">
-        <v>0</v>
+        <v>14.2857</v>
       </c>
       <c r="CC30">
+        <v>0</v>
+      </c>
+      <c r="CD30">
         <v>28.5714</v>
       </c>
-      <c r="CD30">
-        <v>0</v>
-      </c>
       <c r="CE30">
+        <v>0</v>
+      </c>
+      <c r="CF30">
         <v>28.5714</v>
       </c>
-      <c r="CF30">
-        <v>0</v>
-      </c>
       <c r="CG30">
+        <v>0</v>
+      </c>
+      <c r="CH30">
         <v>28.5714</v>
       </c>
-      <c r="CH30">
-        <v>0</v>
-      </c>
       <c r="CI30">
         <v>0</v>
       </c>
@@ -8801,13 +8981,19 @@
         <v>0</v>
       </c>
       <c r="CK30">
+        <v>0</v>
+      </c>
+      <c r="CL30">
+        <v>0</v>
+      </c>
+      <c r="CM30">
         <v>71.4286</v>
       </c>
-      <c r="CL30">
+      <c r="CN30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:92">
       <c r="A31" s="1">
         <v>1926</v>
       </c>
@@ -8815,7 +9001,7 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>3.854</v>
+        <v>4.0317</v>
       </c>
       <c r="D31">
         <v>5.8824</v>
@@ -8896,17 +9082,17 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>17.6471</v>
       </c>
       <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
         <v>5.8824</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>23.5294</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
       <c r="AH31">
         <v>0</v>
       </c>
@@ -8935,11 +9121,11 @@
         <v>0</v>
       </c>
       <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
         <v>5.8824</v>
       </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
       <c r="AS31">
         <v>0</v>
       </c>
@@ -8959,22 +9145,22 @@
         <v>0</v>
       </c>
       <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
         <v>5.8824</v>
       </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
       <c r="BA31">
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>5.8824</v>
+        <v>0</v>
       </c>
       <c r="BC31">
         <v>5.8824</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>5.8824</v>
       </c>
       <c r="BE31">
         <v>0</v>
@@ -9031,11 +9217,11 @@
         <v>0</v>
       </c>
       <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BX31">
         <v>11.7647</v>
       </c>
-      <c r="BX31">
-        <v>0</v>
-      </c>
       <c r="BY31">
         <v>0</v>
       </c>
@@ -9046,40 +9232,46 @@
         <v>0</v>
       </c>
       <c r="CB31">
+        <v>0</v>
+      </c>
+      <c r="CC31">
         <v>5.8824</v>
       </c>
-      <c r="CC31">
-        <v>0</v>
-      </c>
       <c r="CD31">
+        <v>0</v>
+      </c>
+      <c r="CE31">
         <v>11.7647</v>
       </c>
-      <c r="CE31">
+      <c r="CF31">
         <v>35.2941</v>
       </c>
-      <c r="CF31">
-        <v>0</v>
-      </c>
       <c r="CG31">
+        <v>0</v>
+      </c>
+      <c r="CH31">
         <v>17.6471</v>
       </c>
-      <c r="CH31">
-        <v>0</v>
-      </c>
       <c r="CI31">
         <v>0</v>
       </c>
       <c r="CJ31">
+        <v>0</v>
+      </c>
+      <c r="CK31">
         <v>5.8824</v>
       </c>
-      <c r="CK31">
+      <c r="CL31">
+        <v>5.8824</v>
+      </c>
+      <c r="CM31">
         <v>76.4706</v>
       </c>
-      <c r="CL31">
+      <c r="CN31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:90">
+    <row r="32" spans="1:92">
       <c r="A32" s="1">
         <v>1927</v>
       </c>
@@ -9087,7 +9279,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>5.3879</v>
+        <v>5.4073</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9168,29 +9360,29 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
         <v>43.75</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>6.25</v>
       </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
       <c r="AI32">
         <v>0</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
         <v>6.25</v>
       </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
       <c r="AL32">
         <v>0</v>
       </c>
@@ -9216,26 +9408,26 @@
         <v>0</v>
       </c>
       <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
         <v>12.5</v>
       </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
       <c r="AV32">
         <v>0</v>
       </c>
       <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
         <v>6.25</v>
       </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
       <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
         <v>12.5</v>
       </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
       <c r="BA32">
         <v>0</v>
       </c>
@@ -9243,13 +9435,13 @@
         <v>0</v>
       </c>
       <c r="BC32">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="BD32">
         <v>6.25</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="BF32">
         <v>0</v>
@@ -9294,50 +9486,50 @@
         <v>0</v>
       </c>
       <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
         <v>6.25</v>
       </c>
-      <c r="BU32">
-        <v>0</v>
-      </c>
       <c r="BV32">
         <v>0</v>
       </c>
       <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BX32">
         <v>31.25</v>
       </c>
-      <c r="BX32">
+      <c r="BY32">
         <v>12.5</v>
       </c>
-      <c r="BY32">
-        <v>0</v>
-      </c>
       <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
         <v>12.5</v>
       </c>
-      <c r="CA32">
+      <c r="CB32">
         <v>6.25</v>
       </c>
-      <c r="CB32">
-        <v>0</v>
-      </c>
       <c r="CC32">
+        <v>0</v>
+      </c>
+      <c r="CD32">
         <v>12.5</v>
       </c>
-      <c r="CD32">
-        <v>0</v>
-      </c>
       <c r="CE32">
+        <v>0</v>
+      </c>
+      <c r="CF32">
         <v>31.25</v>
       </c>
-      <c r="CF32">
-        <v>0</v>
-      </c>
       <c r="CG32">
+        <v>0</v>
+      </c>
+      <c r="CH32">
         <v>6.25</v>
       </c>
-      <c r="CH32">
-        <v>0</v>
-      </c>
       <c r="CI32">
         <v>0</v>
       </c>
@@ -9345,13 +9537,19 @@
         <v>0</v>
       </c>
       <c r="CK32">
+        <v>6.25</v>
+      </c>
+      <c r="CL32">
+        <v>0</v>
+      </c>
+      <c r="CM32">
         <v>81.25</v>
       </c>
-      <c r="CL32">
+      <c r="CN32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:90">
+    <row r="33" spans="1:92">
       <c r="A33" s="1">
         <v>1928</v>
       </c>
@@ -9359,7 +9557,7 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>5.4091</v>
+        <v>5.3536</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -9446,11 +9644,11 @@
         <v>0</v>
       </c>
       <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
         <v>58.8235</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
       <c r="AH33">
         <v>0</v>
       </c>
@@ -9479,20 +9677,20 @@
         <v>0</v>
       </c>
       <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
         <v>5.8824</v>
       </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
       <c r="AS33">
         <v>0</v>
       </c>
       <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
         <v>5.8824</v>
       </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
       <c r="AV33">
         <v>0</v>
       </c>
@@ -9503,14 +9701,14 @@
         <v>0</v>
       </c>
       <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
         <v>11.7647</v>
       </c>
-      <c r="AZ33">
+      <c r="BA33">
         <v>5.8824</v>
       </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
       <c r="BB33">
         <v>0</v>
       </c>
@@ -9575,55 +9773,61 @@
         <v>0</v>
       </c>
       <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
         <v>17.6471</v>
       </c>
-      <c r="BX33">
+      <c r="BY33">
         <v>5.8824</v>
       </c>
-      <c r="BY33">
-        <v>0</v>
-      </c>
       <c r="BZ33">
-        <v>11.7647</v>
+        <v>0</v>
       </c>
       <c r="CA33">
         <v>11.7647</v>
       </c>
       <c r="CB33">
-        <v>0</v>
+        <v>11.7647</v>
       </c>
       <c r="CC33">
         <v>0</v>
       </c>
       <c r="CD33">
+        <v>0</v>
+      </c>
+      <c r="CE33">
         <v>5.8824</v>
       </c>
-      <c r="CE33">
+      <c r="CF33">
         <v>29.4118</v>
       </c>
-      <c r="CF33">
-        <v>0</v>
-      </c>
       <c r="CG33">
+        <v>0</v>
+      </c>
+      <c r="CH33">
         <v>29.4118</v>
       </c>
-      <c r="CH33">
-        <v>0</v>
-      </c>
       <c r="CI33">
         <v>0</v>
       </c>
       <c r="CJ33">
+        <v>0</v>
+      </c>
+      <c r="CK33">
+        <v>5.8824</v>
+      </c>
+      <c r="CL33">
         <v>23.5294</v>
       </c>
-      <c r="CK33">
+      <c r="CM33">
         <v>82.35290000000001</v>
       </c>
-      <c r="CL33">
+      <c r="CN33">
         <v>5.8824</v>
       </c>
     </row>
-    <row r="34" spans="1:90">
+    <row r="34" spans="1:92">
       <c r="A34" s="1">
         <v>1929</v>
       </c>
@@ -9631,7 +9835,7 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>5.8824</v>
+        <v>5.9484</v>
       </c>
       <c r="D34">
         <v>5.8824</v>
@@ -9712,20 +9916,20 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>5.8824</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
         <v>47.0588</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>5.8824</v>
       </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
       <c r="AI34">
         <v>0</v>
       </c>
@@ -9751,35 +9955,35 @@
         <v>0</v>
       </c>
       <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
         <v>5.8824</v>
       </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
       <c r="AS34">
         <v>0</v>
       </c>
       <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
         <v>5.8824</v>
       </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
       <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
         <v>17.6471</v>
       </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
       <c r="AX34">
         <v>0</v>
       </c>
       <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
         <v>17.6471</v>
       </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
       <c r="BA34">
         <v>0</v>
       </c>
@@ -9796,11 +10000,11 @@
         <v>0</v>
       </c>
       <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
         <v>5.8824</v>
       </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
       <c r="BH34">
         <v>0</v>
       </c>
@@ -9832,11 +10036,11 @@
         <v>0</v>
       </c>
       <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
         <v>5.8824</v>
       </c>
-      <c r="BS34">
-        <v>0</v>
-      </c>
       <c r="BT34">
         <v>0</v>
       </c>
@@ -9847,41 +10051,41 @@
         <v>0</v>
       </c>
       <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
         <v>5.8824</v>
       </c>
-      <c r="BX34">
+      <c r="BY34">
         <v>11.7647</v>
       </c>
-      <c r="BY34">
-        <v>0</v>
-      </c>
       <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
         <v>11.7647</v>
       </c>
-      <c r="CA34">
-        <v>0</v>
-      </c>
       <c r="CB34">
+        <v>0</v>
+      </c>
+      <c r="CC34">
         <v>11.7647</v>
       </c>
-      <c r="CC34">
+      <c r="CD34">
         <v>5.8824</v>
       </c>
-      <c r="CD34">
-        <v>0</v>
-      </c>
       <c r="CE34">
+        <v>0</v>
+      </c>
+      <c r="CF34">
         <v>35.2941</v>
       </c>
-      <c r="CF34">
-        <v>0</v>
-      </c>
       <c r="CG34">
+        <v>0</v>
+      </c>
+      <c r="CH34">
         <v>17.6471</v>
       </c>
-      <c r="CH34">
-        <v>0</v>
-      </c>
       <c r="CI34">
         <v>0</v>
       </c>
@@ -9889,13 +10093,19 @@
         <v>0</v>
       </c>
       <c r="CK34">
+        <v>11.7647</v>
+      </c>
+      <c r="CL34">
+        <v>0</v>
+      </c>
+      <c r="CM34">
         <v>88.2353</v>
       </c>
-      <c r="CL34">
+      <c r="CN34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:90">
+    <row r="35" spans="1:92">
       <c r="A35" s="1">
         <v>1930</v>
       </c>
@@ -9903,7 +10113,7 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>5.364</v>
+        <v>5.5645</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9984,20 +10194,20 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>19.0476</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
         <v>57.1429</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>4.7619</v>
       </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
       <c r="AI35">
         <v>0</v>
       </c>
@@ -10023,20 +10233,20 @@
         <v>0</v>
       </c>
       <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
         <v>4.7619</v>
       </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
       <c r="AS35">
         <v>0</v>
       </c>
       <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
         <v>9.5238</v>
       </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
       <c r="AV35">
         <v>0</v>
       </c>
@@ -10047,22 +10257,22 @@
         <v>0</v>
       </c>
       <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
         <v>14.2857</v>
       </c>
-      <c r="AZ35">
-        <v>0</v>
-      </c>
       <c r="BA35">
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>4.7619</v>
+        <v>0</v>
       </c>
       <c r="BC35">
         <v>4.7619</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>4.7619</v>
       </c>
       <c r="BE35">
         <v>0</v>
@@ -10119,41 +10329,41 @@
         <v>0</v>
       </c>
       <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
         <v>9.5238</v>
-      </c>
-      <c r="BX35">
-        <v>4.7619</v>
       </c>
       <c r="BY35">
         <v>4.7619</v>
       </c>
       <c r="BZ35">
+        <v>4.7619</v>
+      </c>
+      <c r="CA35">
         <v>9.5238</v>
-      </c>
-      <c r="CA35">
-        <v>4.7619</v>
       </c>
       <c r="CB35">
         <v>4.7619</v>
       </c>
       <c r="CC35">
+        <v>4.7619</v>
+      </c>
+      <c r="CD35">
         <v>9.5238</v>
       </c>
-      <c r="CD35">
+      <c r="CE35">
         <v>4.7619</v>
       </c>
-      <c r="CE35">
+      <c r="CF35">
         <v>28.5714</v>
       </c>
-      <c r="CF35">
-        <v>0</v>
-      </c>
       <c r="CG35">
+        <v>0</v>
+      </c>
+      <c r="CH35">
         <v>23.8095</v>
       </c>
-      <c r="CH35">
-        <v>0</v>
-      </c>
       <c r="CI35">
         <v>0</v>
       </c>
@@ -10161,13 +10371,19 @@
         <v>0</v>
       </c>
       <c r="CK35">
+        <v>9.5238</v>
+      </c>
+      <c r="CL35">
+        <v>0</v>
+      </c>
+      <c r="CM35">
         <v>90.47620000000001</v>
       </c>
-      <c r="CL35">
+      <c r="CN35">
         <v>4.7619</v>
       </c>
     </row>
-    <row r="36" spans="1:90">
+    <row r="36" spans="1:92">
       <c r="A36" s="1">
         <v>1931</v>
       </c>
@@ -10175,7 +10391,7 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>6.1969</v>
+        <v>6.2531</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -10256,20 +10472,20 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>8.6957</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
         <v>52.1739</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>4.3478</v>
       </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
       <c r="AI36">
         <v>0</v>
       </c>
@@ -10295,11 +10511,11 @@
         <v>0</v>
       </c>
       <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
         <v>4.3478</v>
       </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
       <c r="AS36">
         <v>0</v>
       </c>
@@ -10310,56 +10526,56 @@
         <v>0</v>
       </c>
       <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
         <v>4.3478</v>
       </c>
-      <c r="AW36">
+      <c r="AX36">
         <v>21.7391</v>
       </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
       <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
         <v>39.1304</v>
       </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
       <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
         <v>4.3478</v>
       </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
       <c r="BC36">
-        <v>8.6957</v>
+        <v>0</v>
       </c>
       <c r="BD36">
         <v>8.6957</v>
       </c>
       <c r="BE36">
-        <v>0</v>
+        <v>8.6957</v>
       </c>
       <c r="BF36">
         <v>0</v>
       </c>
       <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
         <v>4.3478</v>
       </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
       <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
         <v>4.3478</v>
       </c>
-      <c r="BJ36">
-        <v>0</v>
-      </c>
       <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
         <v>4.3478</v>
       </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
       <c r="BM36">
         <v>0</v>
       </c>
@@ -10376,11 +10592,11 @@
         <v>0</v>
       </c>
       <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
         <v>4.3478</v>
       </c>
-      <c r="BS36">
-        <v>0</v>
-      </c>
       <c r="BT36">
         <v>0</v>
       </c>
@@ -10391,19 +10607,19 @@
         <v>0</v>
       </c>
       <c r="BW36">
-        <v>17.3913</v>
+        <v>0</v>
       </c>
       <c r="BX36">
         <v>17.3913</v>
       </c>
       <c r="BY36">
+        <v>17.3913</v>
+      </c>
+      <c r="BZ36">
         <v>4.3478</v>
       </c>
-      <c r="BZ36">
+      <c r="CA36">
         <v>17.3913</v>
-      </c>
-      <c r="CA36">
-        <v>4.3478</v>
       </c>
       <c r="CB36">
         <v>4.3478</v>
@@ -10412,34 +10628,40 @@
         <v>4.3478</v>
       </c>
       <c r="CD36">
+        <v>4.3478</v>
+      </c>
+      <c r="CE36">
         <v>13.0435</v>
       </c>
-      <c r="CE36">
+      <c r="CF36">
         <v>30.4348</v>
       </c>
-      <c r="CF36">
-        <v>0</v>
-      </c>
       <c r="CG36">
+        <v>0</v>
+      </c>
+      <c r="CH36">
         <v>4.3478</v>
       </c>
-      <c r="CH36">
-        <v>0</v>
-      </c>
       <c r="CI36">
         <v>0</v>
       </c>
       <c r="CJ36">
+        <v>0</v>
+      </c>
+      <c r="CK36">
         <v>8.6957</v>
       </c>
-      <c r="CK36">
+      <c r="CL36">
+        <v>8.6957</v>
+      </c>
+      <c r="CM36">
         <v>91.3043</v>
       </c>
-      <c r="CL36">
+      <c r="CN36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:90">
+    <row r="37" spans="1:92">
       <c r="A37" s="1">
         <v>1932</v>
       </c>
@@ -10447,7 +10669,7 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <v>7.2797</v>
+        <v>7.4157</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -10528,20 +10750,20 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>6.6667</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
         <v>53.3333</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>13.3333</v>
       </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
       <c r="AI37">
         <v>0</v>
       </c>
@@ -10576,26 +10798,26 @@
         <v>0</v>
       </c>
       <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
         <v>6.6667</v>
       </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
       <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
         <v>20</v>
       </c>
-      <c r="AW37">
+      <c r="AX37">
         <v>26.6667</v>
       </c>
-      <c r="AX37">
+      <c r="AY37">
         <v>6.6667</v>
       </c>
-      <c r="AY37">
+      <c r="AZ37">
         <v>26.6667</v>
       </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
       <c r="BA37">
         <v>0</v>
       </c>
@@ -10603,11 +10825,11 @@
         <v>0</v>
       </c>
       <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
         <v>6.6667</v>
       </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
       <c r="BE37">
         <v>0</v>
       </c>
@@ -10663,55 +10885,61 @@
         <v>0</v>
       </c>
       <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
         <v>20</v>
       </c>
-      <c r="BX37">
+      <c r="BY37">
         <v>6.6667</v>
       </c>
-      <c r="BY37">
-        <v>0</v>
-      </c>
       <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
         <v>20</v>
       </c>
-      <c r="CA37">
-        <v>0</v>
-      </c>
       <c r="CB37">
-        <v>6.6667</v>
+        <v>0</v>
       </c>
       <c r="CC37">
         <v>6.6667</v>
       </c>
       <c r="CD37">
+        <v>6.6667</v>
+      </c>
+      <c r="CE37">
         <v>13.3333</v>
       </c>
-      <c r="CE37">
+      <c r="CF37">
         <v>33.3333</v>
       </c>
-      <c r="CF37">
-        <v>0</v>
-      </c>
       <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
         <v>33.3333</v>
       </c>
-      <c r="CH37">
-        <v>0</v>
-      </c>
       <c r="CI37">
         <v>0</v>
       </c>
       <c r="CJ37">
+        <v>0</v>
+      </c>
+      <c r="CK37">
+        <v>20</v>
+      </c>
+      <c r="CL37">
         <v>13.3333</v>
       </c>
-      <c r="CK37">
+      <c r="CM37">
         <v>100</v>
       </c>
-      <c r="CL37">
+      <c r="CN37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:90">
+    <row r="38" spans="1:92">
       <c r="A38" s="1">
         <v>1933</v>
       </c>
@@ -10719,7 +10947,7 @@
         <v>24</v>
       </c>
       <c r="C38">
-        <v>7.2797</v>
+        <v>7.397</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -10800,20 +11028,20 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>8.333299999999999</v>
       </c>
       <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
         <v>4.1667</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>58.3333</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>4.1667</v>
       </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
       <c r="AI38">
         <v>0</v>
       </c>
@@ -10839,11 +11067,11 @@
         <v>0</v>
       </c>
       <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
         <v>4.1667</v>
       </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
       <c r="AS38">
         <v>0</v>
       </c>
@@ -10854,43 +11082,43 @@
         <v>0</v>
       </c>
       <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
         <v>20.8333</v>
       </c>
-      <c r="AW38">
+      <c r="AX38">
         <v>8.333299999999999</v>
       </c>
-      <c r="AX38">
+      <c r="AY38">
         <v>4.1667</v>
       </c>
-      <c r="AY38">
+      <c r="AZ38">
         <v>37.5</v>
       </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
       <c r="BA38">
         <v>0</v>
       </c>
       <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
         <v>4.1667</v>
       </c>
-      <c r="BC38">
+      <c r="BD38">
         <v>12.5</v>
       </c>
-      <c r="BD38">
+      <c r="BE38">
         <v>4.1667</v>
       </c>
-      <c r="BE38">
-        <v>0</v>
-      </c>
       <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
         <v>4.1667</v>
       </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
       <c r="BH38">
-        <v>4.1667</v>
+        <v>0</v>
       </c>
       <c r="BI38">
         <v>4.1667</v>
@@ -10899,16 +11127,16 @@
         <v>4.1667</v>
       </c>
       <c r="BK38">
-        <v>0</v>
+        <v>4.1667</v>
       </c>
       <c r="BL38">
-        <v>4.1667</v>
+        <v>0</v>
       </c>
       <c r="BM38">
         <v>4.1667</v>
       </c>
       <c r="BN38">
-        <v>0</v>
+        <v>4.1667</v>
       </c>
       <c r="BO38">
         <v>0</v>
@@ -10917,14 +11145,14 @@
         <v>0</v>
       </c>
       <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
         <v>8.333299999999999</v>
       </c>
-      <c r="BR38">
+      <c r="BS38">
         <v>4.1667</v>
       </c>
-      <c r="BS38">
-        <v>0</v>
-      </c>
       <c r="BT38">
         <v>0</v>
       </c>
@@ -10932,58 +11160,64 @@
         <v>0</v>
       </c>
       <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
         <v>4.1667</v>
       </c>
-      <c r="BW38">
-        <v>0</v>
-      </c>
       <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
         <v>8.333299999999999</v>
       </c>
-      <c r="BY38">
-        <v>0</v>
-      </c>
       <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
         <v>12.5</v>
       </c>
-      <c r="CA38">
+      <c r="CB38">
         <v>4.1667</v>
-      </c>
-      <c r="CB38">
-        <v>12.5</v>
       </c>
       <c r="CC38">
         <v>12.5</v>
       </c>
       <c r="CD38">
+        <v>12.5</v>
+      </c>
+      <c r="CE38">
         <v>8.333299999999999</v>
       </c>
-      <c r="CE38">
+      <c r="CF38">
         <v>45.8333</v>
       </c>
-      <c r="CF38">
-        <v>0</v>
-      </c>
       <c r="CG38">
+        <v>0</v>
+      </c>
+      <c r="CH38">
         <v>25</v>
       </c>
-      <c r="CH38">
-        <v>0</v>
-      </c>
       <c r="CI38">
         <v>0</v>
       </c>
       <c r="CJ38">
+        <v>0</v>
+      </c>
+      <c r="CK38">
+        <v>16.6667</v>
+      </c>
+      <c r="CL38">
         <v>12.5</v>
       </c>
-      <c r="CK38">
+      <c r="CM38">
         <v>100</v>
       </c>
-      <c r="CL38">
+      <c r="CN38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:90">
+    <row r="39" spans="1:92">
       <c r="A39" s="1">
         <v>1934</v>
       </c>
@@ -10991,7 +11225,7 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>6.2916</v>
+        <v>6.1502</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -11075,14 +11309,14 @@
         <v>0</v>
       </c>
       <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
         <v>5.2632</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>42.1053</v>
       </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
       <c r="AH39">
         <v>0</v>
       </c>
@@ -11111,35 +11345,35 @@
         <v>0</v>
       </c>
       <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
         <v>10.5263</v>
       </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
       <c r="AS39">
         <v>0</v>
       </c>
       <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
         <v>5.2632</v>
       </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
       <c r="AV39">
         <v>0</v>
       </c>
       <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
         <v>5.2632</v>
       </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
       <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
         <v>26.3158</v>
       </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
       <c r="BA39">
         <v>0</v>
       </c>
@@ -11147,29 +11381,29 @@
         <v>0</v>
       </c>
       <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
         <v>15.7895</v>
       </c>
-      <c r="BD39">
+      <c r="BE39">
         <v>5.2632</v>
       </c>
-      <c r="BE39">
-        <v>0</v>
-      </c>
       <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
         <v>5.2632</v>
       </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
       <c r="BH39">
         <v>0</v>
       </c>
       <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
         <v>5.2632</v>
       </c>
-      <c r="BJ39">
-        <v>0</v>
-      </c>
       <c r="BK39">
         <v>0</v>
       </c>
@@ -11198,64 +11432,70 @@
         <v>0</v>
       </c>
       <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
         <v>5.2632</v>
       </c>
-      <c r="BU39">
-        <v>0</v>
-      </c>
       <c r="BV39">
         <v>0</v>
       </c>
       <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BX39">
         <v>5.2632</v>
       </c>
-      <c r="BX39">
+      <c r="BY39">
         <v>10.5263</v>
       </c>
-      <c r="BY39">
-        <v>0</v>
-      </c>
       <c r="BZ39">
+        <v>0</v>
+      </c>
+      <c r="CA39">
         <v>10.5263</v>
       </c>
-      <c r="CA39">
+      <c r="CB39">
         <v>5.2632</v>
       </c>
-      <c r="CB39">
+      <c r="CC39">
         <v>31.5789</v>
-      </c>
-      <c r="CC39">
-        <v>5.2632</v>
       </c>
       <c r="CD39">
         <v>5.2632</v>
       </c>
       <c r="CE39">
+        <v>5.2632</v>
+      </c>
+      <c r="CF39">
         <v>36.8421</v>
       </c>
-      <c r="CF39">
-        <v>0</v>
-      </c>
       <c r="CG39">
+        <v>0</v>
+      </c>
+      <c r="CH39">
         <v>10.5263</v>
       </c>
-      <c r="CH39">
-        <v>0</v>
-      </c>
       <c r="CI39">
         <v>0</v>
       </c>
       <c r="CJ39">
+        <v>0</v>
+      </c>
+      <c r="CK39">
+        <v>0</v>
+      </c>
+      <c r="CL39">
         <v>5.2632</v>
       </c>
-      <c r="CK39">
+      <c r="CM39">
         <v>100</v>
       </c>
-      <c r="CL39">
+      <c r="CN39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:90">
+    <row r="40" spans="1:92">
       <c r="A40" s="1">
         <v>1935</v>
       </c>
@@ -11263,7 +11503,7 @@
         <v>36</v>
       </c>
       <c r="C40">
-        <v>5.1724</v>
+        <v>5.3995</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -11344,17 +11584,17 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>13.8889</v>
       </c>
       <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>2.7778</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>41.6667</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
       <c r="AH40">
         <v>0</v>
       </c>
@@ -11392,41 +11632,41 @@
         <v>0</v>
       </c>
       <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
         <v>2.7778</v>
       </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
       <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
         <v>8.333299999999999</v>
       </c>
-      <c r="AW40">
+      <c r="AX40">
         <v>13.8889</v>
       </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
       <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
         <v>19.4444</v>
       </c>
-      <c r="AZ40">
+      <c r="BA40">
         <v>2.7778</v>
       </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
       <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
         <v>2.7778</v>
       </c>
-      <c r="BC40">
+      <c r="BD40">
         <v>8.333299999999999</v>
       </c>
-      <c r="BD40">
+      <c r="BE40">
         <v>2.7778</v>
       </c>
-      <c r="BE40">
-        <v>0</v>
-      </c>
       <c r="BF40">
         <v>0</v>
       </c>
@@ -11437,11 +11677,11 @@
         <v>0</v>
       </c>
       <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
         <v>2.7778</v>
       </c>
-      <c r="BJ40">
-        <v>0</v>
-      </c>
       <c r="BK40">
         <v>0</v>
       </c>
@@ -11452,23 +11692,23 @@
         <v>0</v>
       </c>
       <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
         <v>2.7778</v>
       </c>
-      <c r="BO40">
-        <v>0</v>
-      </c>
       <c r="BP40">
         <v>0</v>
       </c>
       <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
         <v>11.1111</v>
       </c>
-      <c r="BR40">
+      <c r="BS40">
         <v>2.7778</v>
       </c>
-      <c r="BS40">
-        <v>0</v>
-      </c>
       <c r="BT40">
         <v>0</v>
       </c>
@@ -11479,55 +11719,61 @@
         <v>0</v>
       </c>
       <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
         <v>13.8889</v>
       </c>
-      <c r="BX40">
+      <c r="BY40">
         <v>2.7778</v>
       </c>
-      <c r="BY40">
-        <v>0</v>
-      </c>
       <c r="BZ40">
+        <v>0</v>
+      </c>
+      <c r="CA40">
         <v>8.333299999999999</v>
       </c>
-      <c r="CA40">
-        <v>0</v>
-      </c>
       <c r="CB40">
+        <v>0</v>
+      </c>
+      <c r="CC40">
         <v>16.6667</v>
       </c>
-      <c r="CC40">
+      <c r="CD40">
         <v>2.7778</v>
       </c>
-      <c r="CD40">
+      <c r="CE40">
         <v>8.333299999999999</v>
       </c>
-      <c r="CE40">
+      <c r="CF40">
         <v>30.5556</v>
       </c>
-      <c r="CF40">
-        <v>0</v>
-      </c>
       <c r="CG40">
+        <v>0</v>
+      </c>
+      <c r="CH40">
         <v>16.6667</v>
       </c>
-      <c r="CH40">
-        <v>0</v>
-      </c>
       <c r="CI40">
         <v>0</v>
       </c>
       <c r="CJ40">
+        <v>0</v>
+      </c>
+      <c r="CK40">
+        <v>16.6667</v>
+      </c>
+      <c r="CL40">
         <v>8.333299999999999</v>
       </c>
-      <c r="CK40">
+      <c r="CM40">
         <v>72.2222</v>
       </c>
-      <c r="CL40">
+      <c r="CN40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:90">
+    <row r="41" spans="1:92">
       <c r="A41" s="1">
         <v>1936</v>
       </c>
@@ -11535,7 +11781,7 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>6.1814</v>
+        <v>6.2422</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -11616,20 +11862,20 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>17.7778</v>
       </c>
       <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
         <v>2.2222</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>51.1111</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>2.2222</v>
       </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
       <c r="AI41">
         <v>0</v>
       </c>
@@ -11655,50 +11901,50 @@
         <v>0</v>
       </c>
       <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
         <v>2.2222</v>
       </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
       <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
         <v>2.2222</v>
       </c>
-      <c r="AT41">
+      <c r="AU41">
         <v>8.8889</v>
       </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
       <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
         <v>8.8889</v>
       </c>
-      <c r="AW41">
+      <c r="AX41">
         <v>13.3333</v>
       </c>
-      <c r="AX41">
+      <c r="AY41">
         <v>2.2222</v>
       </c>
-      <c r="AY41">
+      <c r="AZ41">
         <v>31.1111</v>
       </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
       <c r="BA41">
         <v>0</v>
       </c>
       <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
         <v>2.2222</v>
       </c>
-      <c r="BC41">
+      <c r="BD41">
         <v>4.4444</v>
       </c>
-      <c r="BD41">
+      <c r="BE41">
         <v>2.2222</v>
       </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
       <c r="BF41">
         <v>0</v>
       </c>
@@ -11709,11 +11955,11 @@
         <v>0</v>
       </c>
       <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
         <v>2.2222</v>
       </c>
-      <c r="BJ41">
-        <v>0</v>
-      </c>
       <c r="BK41">
         <v>0</v>
       </c>
@@ -11724,23 +11970,23 @@
         <v>0</v>
       </c>
       <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
         <v>2.2222</v>
       </c>
-      <c r="BO41">
-        <v>0</v>
-      </c>
       <c r="BP41">
         <v>0</v>
       </c>
       <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
         <v>4.4444</v>
       </c>
-      <c r="BR41">
+      <c r="BS41">
         <v>2.2222</v>
       </c>
-      <c r="BS41">
-        <v>0</v>
-      </c>
       <c r="BT41">
         <v>0</v>
       </c>
@@ -11751,55 +11997,61 @@
         <v>0</v>
       </c>
       <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BX41">
         <v>8.8889</v>
       </c>
-      <c r="BX41">
+      <c r="BY41">
         <v>4.4444</v>
       </c>
-      <c r="BY41">
+      <c r="BZ41">
         <v>2.2222</v>
       </c>
-      <c r="BZ41">
+      <c r="CA41">
         <v>13.3333</v>
       </c>
-      <c r="CA41">
-        <v>0</v>
-      </c>
       <c r="CB41">
+        <v>0</v>
+      </c>
+      <c r="CC41">
         <v>15.5556</v>
       </c>
-      <c r="CC41">
+      <c r="CD41">
         <v>13.3333</v>
       </c>
-      <c r="CD41">
+      <c r="CE41">
         <v>4.4444</v>
       </c>
-      <c r="CE41">
+      <c r="CF41">
         <v>31.1111</v>
       </c>
-      <c r="CF41">
-        <v>0</v>
-      </c>
       <c r="CG41">
+        <v>0</v>
+      </c>
+      <c r="CH41">
         <v>22.2222</v>
       </c>
-      <c r="CH41">
+      <c r="CI41">
         <v>2.2222</v>
       </c>
-      <c r="CI41">
-        <v>0</v>
-      </c>
       <c r="CJ41">
+        <v>0</v>
+      </c>
+      <c r="CK41">
+        <v>0</v>
+      </c>
+      <c r="CL41">
         <v>11.1111</v>
       </c>
-      <c r="CK41">
+      <c r="CM41">
         <v>88.88890000000001</v>
       </c>
-      <c r="CL41">
+      <c r="CN41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:90">
+    <row r="42" spans="1:92">
       <c r="A42" s="1">
         <v>1937</v>
       </c>
@@ -11807,7 +12059,7 @@
         <v>27</v>
       </c>
       <c r="C42">
-        <v>5.5768</v>
+        <v>5.618</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -11888,17 +12140,17 @@
         <v>0</v>
       </c>
       <c r="AD42">
+        <v>14.8148</v>
+      </c>
+      <c r="AE42">
         <v>3.7037</v>
       </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
       <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
         <v>51.8519</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
       <c r="AH42">
         <v>0</v>
       </c>
@@ -11942,23 +12194,23 @@
         <v>0</v>
       </c>
       <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
         <v>7.4074</v>
       </c>
-      <c r="AW42">
+      <c r="AX42">
         <v>22.2222</v>
       </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
       <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
         <v>29.6296</v>
       </c>
-      <c r="AZ42">
+      <c r="BA42">
         <v>3.7037</v>
       </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
       <c r="BB42">
         <v>0</v>
       </c>
@@ -12011,67 +12263,73 @@
         <v>0</v>
       </c>
       <c r="BS42">
+        <v>0</v>
+      </c>
+      <c r="BT42">
         <v>3.7037</v>
       </c>
-      <c r="BT42">
-        <v>0</v>
-      </c>
       <c r="BU42">
+        <v>0</v>
+      </c>
+      <c r="BV42">
         <v>3.7037</v>
       </c>
-      <c r="BV42">
-        <v>0</v>
-      </c>
       <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BX42">
         <v>14.8148</v>
       </c>
-      <c r="BX42">
+      <c r="BY42">
         <v>11.1111</v>
       </c>
-      <c r="BY42">
-        <v>0</v>
-      </c>
       <c r="BZ42">
+        <v>0</v>
+      </c>
+      <c r="CA42">
         <v>11.1111</v>
       </c>
-      <c r="CA42">
-        <v>0</v>
-      </c>
       <c r="CB42">
+        <v>0</v>
+      </c>
+      <c r="CC42">
         <v>18.5185</v>
       </c>
-      <c r="CC42">
+      <c r="CD42">
         <v>7.4074</v>
       </c>
-      <c r="CD42">
+      <c r="CE42">
         <v>3.7037</v>
       </c>
-      <c r="CE42">
+      <c r="CF42">
         <v>29.6296</v>
       </c>
-      <c r="CF42">
-        <v>0</v>
-      </c>
       <c r="CG42">
+        <v>0</v>
+      </c>
+      <c r="CH42">
         <v>22.2222</v>
       </c>
-      <c r="CH42">
-        <v>0</v>
-      </c>
       <c r="CI42">
         <v>0</v>
       </c>
       <c r="CJ42">
+        <v>0</v>
+      </c>
+      <c r="CK42">
+        <v>0</v>
+      </c>
+      <c r="CL42">
         <v>3.7037</v>
       </c>
-      <c r="CK42">
+      <c r="CM42">
         <v>92.5926</v>
       </c>
-      <c r="CL42">
+      <c r="CN42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:90">
+    <row r="43" spans="1:92">
       <c r="A43" s="1">
         <v>1938</v>
       </c>
@@ -12079,7 +12337,7 @@
         <v>36</v>
       </c>
       <c r="C43">
-        <v>5.2682</v>
+        <v>5.4307</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -12160,20 +12418,20 @@
         <v>2.7778</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
         <v>47.2222</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>2.7778</v>
       </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
       <c r="AI43">
         <v>0</v>
       </c>
@@ -12184,68 +12442,68 @@
         <v>0</v>
       </c>
       <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
         <v>2.7778</v>
       </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
       <c r="AN43">
         <v>0</v>
       </c>
       <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
         <v>2.7778</v>
       </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
       <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
         <v>5.5556</v>
       </c>
-      <c r="AR43">
+      <c r="AS43">
         <v>2.7778</v>
       </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
       <c r="AT43">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="AU43">
         <v>2.7778</v>
       </c>
       <c r="AV43">
+        <v>2.7778</v>
+      </c>
+      <c r="AW43">
         <v>11.1111</v>
       </c>
-      <c r="AW43">
+      <c r="AX43">
         <v>8.333299999999999</v>
       </c>
-      <c r="AX43">
+      <c r="AY43">
         <v>2.7778</v>
       </c>
-      <c r="AY43">
+      <c r="AZ43">
         <v>11.1111</v>
       </c>
-      <c r="AZ43">
+      <c r="BA43">
         <v>5.5556</v>
       </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
       <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
         <v>2.7778</v>
       </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
       <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
         <v>16.6667</v>
       </c>
-      <c r="BE43">
+      <c r="BF43">
         <v>2.7778</v>
       </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
       <c r="BG43">
         <v>0</v>
       </c>
@@ -12253,11 +12511,11 @@
         <v>0</v>
       </c>
       <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
         <v>5.5556</v>
       </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
       <c r="BK43">
         <v>0</v>
       </c>
@@ -12280,11 +12538,11 @@
         <v>0</v>
       </c>
       <c r="BR43">
+        <v>0</v>
+      </c>
+      <c r="BS43">
         <v>2.7778</v>
       </c>
-      <c r="BS43">
-        <v>0</v>
-      </c>
       <c r="BT43">
         <v>0</v>
       </c>
@@ -12295,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="BW43">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="BX43">
         <v>2.7778</v>
@@ -12304,46 +12562,52 @@
         <v>2.7778</v>
       </c>
       <c r="BZ43">
+        <v>2.7778</v>
+      </c>
+      <c r="CA43">
         <v>13.8889</v>
       </c>
-      <c r="CA43">
-        <v>0</v>
-      </c>
       <c r="CB43">
+        <v>0</v>
+      </c>
+      <c r="CC43">
         <v>11.1111</v>
       </c>
-      <c r="CC43">
+      <c r="CD43">
         <v>13.8889</v>
       </c>
-      <c r="CD43">
+      <c r="CE43">
         <v>8.333299999999999</v>
       </c>
-      <c r="CE43">
+      <c r="CF43">
         <v>16.6667</v>
       </c>
-      <c r="CF43">
+      <c r="CG43">
         <v>2.7778</v>
       </c>
-      <c r="CG43">
+      <c r="CH43">
         <v>30.5556</v>
       </c>
-      <c r="CH43">
-        <v>0</v>
-      </c>
       <c r="CI43">
         <v>0</v>
       </c>
       <c r="CJ43">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="CK43">
-        <v>80.5556</v>
+        <v>0</v>
       </c>
       <c r="CL43">
         <v>2.7778</v>
       </c>
+      <c r="CM43">
+        <v>80.5556</v>
+      </c>
+      <c r="CN43">
+        <v>2.7778</v>
+      </c>
     </row>
-    <row r="44" spans="1:90">
+    <row r="44" spans="1:92">
       <c r="A44" s="1">
         <v>1939</v>
       </c>
@@ -12351,7 +12615,7 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>7.152</v>
+        <v>7.4906</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -12432,17 +12696,17 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>18.5185</v>
       </c>
       <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
         <v>3.7037</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>55.5556</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
       <c r="AH44">
         <v>0</v>
       </c>
@@ -12453,68 +12717,68 @@
         <v>0</v>
       </c>
       <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
         <v>3.7037</v>
       </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
         <v>3.7037</v>
       </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
       <c r="AO44">
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>3.7037</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
         <v>3.7037</v>
       </c>
       <c r="AR44">
-        <v>0</v>
+        <v>3.7037</v>
       </c>
       <c r="AS44">
         <v>0</v>
       </c>
       <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
         <v>7.4074</v>
       </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
       <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
         <v>14.8148</v>
       </c>
-      <c r="AW44">
+      <c r="AX44">
         <v>3.7037</v>
       </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
       <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
         <v>7.4074</v>
       </c>
-      <c r="AZ44">
+      <c r="BA44">
         <v>3.7037</v>
       </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
       <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
         <v>7.4074</v>
       </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
       <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
         <v>18.5185</v>
       </c>
-      <c r="BE44">
-        <v>0</v>
-      </c>
       <c r="BF44">
         <v>0</v>
       </c>
@@ -12525,17 +12789,17 @@
         <v>0</v>
       </c>
       <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
         <v>3.7037</v>
       </c>
-      <c r="BJ44">
-        <v>0</v>
-      </c>
       <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
         <v>3.7037</v>
       </c>
-      <c r="BL44">
-        <v>0</v>
-      </c>
       <c r="BM44">
         <v>0</v>
       </c>
@@ -12549,11 +12813,11 @@
         <v>0</v>
       </c>
       <c r="BQ44">
+        <v>0</v>
+      </c>
+      <c r="BR44">
         <v>11.1111</v>
       </c>
-      <c r="BR44">
-        <v>0</v>
-      </c>
       <c r="BS44">
         <v>0</v>
       </c>
@@ -12567,55 +12831,61 @@
         <v>0</v>
       </c>
       <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
         <v>14.8148</v>
       </c>
-      <c r="BX44">
+      <c r="BY44">
         <v>11.1111</v>
       </c>
-      <c r="BY44">
-        <v>0</v>
-      </c>
       <c r="BZ44">
+        <v>0</v>
+      </c>
+      <c r="CA44">
         <v>22.2222</v>
       </c>
-      <c r="CA44">
-        <v>0</v>
-      </c>
       <c r="CB44">
+        <v>0</v>
+      </c>
+      <c r="CC44">
         <v>18.5185</v>
-      </c>
-      <c r="CC44">
-        <v>11.1111</v>
       </c>
       <c r="CD44">
         <v>11.1111</v>
       </c>
       <c r="CE44">
+        <v>11.1111</v>
+      </c>
+      <c r="CF44">
         <v>44.4444</v>
       </c>
-      <c r="CF44">
-        <v>0</v>
-      </c>
       <c r="CG44">
+        <v>0</v>
+      </c>
+      <c r="CH44">
         <v>40.7407</v>
       </c>
-      <c r="CH44">
+      <c r="CI44">
         <v>3.7037</v>
       </c>
-      <c r="CI44">
-        <v>0</v>
-      </c>
       <c r="CJ44">
+        <v>0</v>
+      </c>
+      <c r="CK44">
+        <v>25.9259</v>
+      </c>
+      <c r="CL44">
         <v>3.7037</v>
       </c>
-      <c r="CK44">
+      <c r="CM44">
         <v>77.7778</v>
       </c>
-      <c r="CL44">
+      <c r="CN44">
         <v>7.4074</v>
       </c>
     </row>
-    <row r="45" spans="1:90">
+    <row r="45" spans="1:92">
       <c r="A45" s="1">
         <v>1940</v>
       </c>
@@ -12623,7 +12893,7 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>7.3276</v>
+        <v>7.3736</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -12704,17 +12974,17 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
         <v>62.5</v>
       </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
       <c r="AH45">
         <v>0</v>
       </c>
@@ -12743,35 +13013,35 @@
         <v>0</v>
       </c>
       <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
         <v>6.25</v>
       </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
       <c r="AS45">
         <v>0</v>
       </c>
       <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
         <v>6.25</v>
       </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
       <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
         <v>18.75</v>
       </c>
-      <c r="AW45">
+      <c r="AX45">
         <v>6.25</v>
       </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
       <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
         <v>25</v>
       </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
       <c r="BA45">
         <v>0</v>
       </c>
@@ -12779,14 +13049,14 @@
         <v>0</v>
       </c>
       <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
         <v>6.25</v>
       </c>
-      <c r="BD45">
+      <c r="BE45">
         <v>12.5</v>
       </c>
-      <c r="BE45">
-        <v>0</v>
-      </c>
       <c r="BF45">
         <v>0</v>
       </c>
@@ -12797,11 +13067,11 @@
         <v>0</v>
       </c>
       <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
         <v>12.5</v>
       </c>
-      <c r="BJ45">
-        <v>0</v>
-      </c>
       <c r="BK45">
         <v>0</v>
       </c>
@@ -12821,11 +13091,11 @@
         <v>0</v>
       </c>
       <c r="BQ45">
+        <v>0</v>
+      </c>
+      <c r="BR45">
         <v>6.25</v>
       </c>
-      <c r="BR45">
-        <v>0</v>
-      </c>
       <c r="BS45">
         <v>0</v>
       </c>
@@ -12839,51 +13109,57 @@
         <v>0</v>
       </c>
       <c r="BW45">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="BX45">
         <v>12.5</v>
       </c>
       <c r="BY45">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BZ45">
+        <v>0</v>
+      </c>
+      <c r="CA45">
         <v>12.5</v>
       </c>
-      <c r="CA45">
-        <v>0</v>
-      </c>
       <c r="CB45">
+        <v>0</v>
+      </c>
+      <c r="CC45">
         <v>25</v>
       </c>
-      <c r="CC45">
+      <c r="CD45">
         <v>18.75</v>
       </c>
-      <c r="CD45">
+      <c r="CE45">
         <v>12.5</v>
       </c>
-      <c r="CE45">
+      <c r="CF45">
         <v>43.75</v>
       </c>
-      <c r="CF45">
-        <v>0</v>
-      </c>
       <c r="CG45">
+        <v>0</v>
+      </c>
+      <c r="CH45">
         <v>25</v>
       </c>
-      <c r="CH45">
-        <v>0</v>
-      </c>
       <c r="CI45">
         <v>0</v>
       </c>
       <c r="CJ45">
+        <v>0</v>
+      </c>
+      <c r="CK45">
+        <v>6.25</v>
+      </c>
+      <c r="CL45">
         <v>12.5</v>
       </c>
-      <c r="CK45">
+      <c r="CM45">
         <v>93.75</v>
       </c>
-      <c r="CL45">
+      <c r="CN45">
         <v>0</v>
       </c>
     </row>
